--- a/Personal/xueyu/plan/周计划-2018-03-19.xlsx
+++ b/Personal/xueyu/plan/周计划-2018-03-19.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E74E62F-0EBE-4597-988B-EED4B0548B46}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,12 +97,24 @@
     <t>看代码，学数学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有点难，二元函数的极限难度指数级增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,15 +418,99 @@
     <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -426,23 +523,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -461,81 +549,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -811,50 +824,50 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="48.625" customWidth="1"/>
     <col min="4" max="5" width="13.875" style="28" customWidth="1"/>
     <col min="6" max="6" width="14.375" style="28" customWidth="1"/>
-    <col min="7" max="7" width="30.125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="35.375" style="28" customWidth="1"/>
     <col min="8" max="8" width="30.125" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="76.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:9" ht="76.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickTop="1">
-      <c r="A2" s="71" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="72"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
@@ -877,11 +890,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="43">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="46">
         <v>43178</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="44" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -889,29 +902,35 @@
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="F3" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="G3" s="17"/>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="74"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="70"/>
-      <c r="B4" s="73"/>
+      <c r="I3" s="51">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="47"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="F4" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="G4" s="17"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="75"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="69"/>
-      <c r="B5" s="68" t="s">
+      <c r="H4" s="54"/>
+      <c r="I4" s="52"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="45"/>
+      <c r="B5" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -919,26 +938,30 @@
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
-      <c r="F5" s="16"/>
+      <c r="F5" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="G5" s="31"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="75"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="69"/>
-      <c r="B6" s="69"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="52"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="18"/>
-      <c r="F6" s="16"/>
+      <c r="F6" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="G6" s="31"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="75"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="69"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="52"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="45"/>
       <c r="B7" s="35" t="s">
         <v>15</v>
       </c>
@@ -947,12 +970,16 @@
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="76"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.25" customHeight="1">
+      <c r="F7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="54"/>
+      <c r="I7" s="53"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="56"/>
       <c r="B8" s="58"/>
       <c r="C8" s="3"/>
@@ -963,7 +990,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="55"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="57"/>
       <c r="B9" s="58"/>
       <c r="C9" s="3"/>
@@ -974,9 +1001,9 @@
       <c r="H9" s="11"/>
       <c r="I9" s="55"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="57"/>
-      <c r="B10" s="60"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="3"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -985,9 +1012,9 @@
       <c r="H10" s="11"/>
       <c r="I10" s="55"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="57"/>
-      <c r="B11" s="61"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="3"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
@@ -996,9 +1023,9 @@
       <c r="H11" s="11"/>
       <c r="I11" s="55"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="57"/>
-      <c r="B12" s="60"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="3"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
@@ -1007,9 +1034,9 @@
       <c r="H12" s="11"/>
       <c r="I12" s="55"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="57"/>
-      <c r="B13" s="62"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="3"/>
       <c r="D13" s="19"/>
       <c r="E13" s="30"/>
@@ -1018,9 +1045,9 @@
       <c r="H13" s="11"/>
       <c r="I13" s="55"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="57"/>
-      <c r="B14" s="61"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="3"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
@@ -1029,8 +1056,8 @@
       <c r="H14" s="11"/>
       <c r="I14" s="55"/>
     </row>
-    <row r="15" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A15" s="41"/>
+    <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="69"/>
       <c r="B15" s="29"/>
       <c r="C15" s="1"/>
       <c r="D15" s="22"/>
@@ -1038,54 +1065,54 @@
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="39"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="42"/>
-      <c r="B16" s="63"/>
+      <c r="I15" s="67"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="70"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="5"/>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="40"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="42"/>
-      <c r="B17" s="64"/>
+      <c r="I16" s="68"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="70"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="1"/>
       <c r="D17" s="23"/>
       <c r="E17" s="15"/>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="40"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="42"/>
-      <c r="B18" s="64"/>
+      <c r="I17" s="68"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="70"/>
+      <c r="B18" s="63"/>
       <c r="C18" s="1"/>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="40"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="42"/>
-      <c r="B19" s="65"/>
+      <c r="I18" s="68"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="70"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="1"/>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="40"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="42"/>
+      <c r="I19" s="68"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="70"/>
       <c r="B20" s="29"/>
       <c r="C20" s="1"/>
       <c r="D20" s="23"/>
@@ -1093,11 +1120,11 @@
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="40"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="59"/>
-      <c r="B21" s="46"/>
+      <c r="I20" s="68"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="36"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="9"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
@@ -1106,9 +1133,9 @@
       <c r="H21" s="6"/>
       <c r="I21" s="38"/>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="59"/>
-      <c r="B22" s="46"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="36"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="9"/>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
@@ -1117,9 +1144,9 @@
       <c r="H22" s="6"/>
       <c r="I22" s="38"/>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="6"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
@@ -1128,9 +1155,9 @@
       <c r="H23" s="6"/>
       <c r="I23" s="38"/>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="6"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
@@ -1139,9 +1166,9 @@
       <c r="H24" s="6"/>
       <c r="I24" s="38"/>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="6"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -1150,9 +1177,9 @@
       <c r="H25" s="6"/>
       <c r="I25" s="38"/>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
       <c r="C26" s="6"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
@@ -1161,161 +1188,161 @@
       <c r="H26" s="6"/>
       <c r="I26" s="38"/>
     </row>
-    <row r="27" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A27" s="43"/>
-      <c r="B27" s="37"/>
+    <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="46"/>
+      <c r="B27" s="66"/>
       <c r="C27" s="7"/>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="49"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="44"/>
-      <c r="B28" s="37"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="74"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="71"/>
+      <c r="B28" s="66"/>
       <c r="C28" s="7"/>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
       <c r="F28" s="25"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="50"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="44"/>
-      <c r="B29" s="37"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="75"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="71"/>
+      <c r="B29" s="66"/>
       <c r="C29" s="7"/>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
       <c r="F29" s="25"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="50"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="44"/>
-      <c r="B30" s="47"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="75"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="71"/>
+      <c r="B30" s="73"/>
       <c r="C30" s="7"/>
       <c r="D30" s="26"/>
       <c r="E30" s="26"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="50"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="44"/>
-      <c r="B31" s="47"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="75"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="71"/>
+      <c r="B31" s="73"/>
       <c r="C31" s="7"/>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="50"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="44"/>
-      <c r="B32" s="47"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="75"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="71"/>
+      <c r="B32" s="73"/>
       <c r="C32" s="7"/>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="50"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="45"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="75"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="72"/>
       <c r="B33" s="33"/>
       <c r="C33" s="7"/>
       <c r="D33" s="25"/>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="51"/>
-    </row>
-    <row r="34" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A34" s="59"/>
-      <c r="B34" s="46"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="76"/>
+    </row>
+    <row r="34" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="36"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="9"/>
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
       <c r="F34" s="24"/>
       <c r="G34" s="24"/>
-      <c r="H34" s="77"/>
+      <c r="H34" s="39"/>
       <c r="I34" s="38"/>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="59"/>
-      <c r="B35" s="46"/>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="36"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="9"/>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
-      <c r="H35" s="78"/>
+      <c r="H35" s="40"/>
       <c r="I35" s="38"/>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="46"/>
-      <c r="B36" s="46"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="9"/>
       <c r="D36" s="34"/>
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
       <c r="G36" s="24"/>
-      <c r="H36" s="78"/>
+      <c r="H36" s="40"/>
       <c r="I36" s="38"/>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="46"/>
-      <c r="B37" s="46"/>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="9"/>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
       <c r="G37" s="24"/>
-      <c r="H37" s="78"/>
+      <c r="H37" s="40"/>
       <c r="I37" s="38"/>
     </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="46"/>
-      <c r="B38" s="46"/>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="37"/>
+      <c r="B38" s="37"/>
       <c r="C38" s="6"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
       <c r="G38" s="24"/>
-      <c r="H38" s="78"/>
+      <c r="H38" s="40"/>
       <c r="I38" s="38"/>
     </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="46"/>
-      <c r="B39" s="46"/>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
       <c r="C39" s="6"/>
       <c r="D39" s="24"/>
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
-      <c r="H39" s="78"/>
+      <c r="H39" s="40"/>
       <c r="I39" s="38"/>
     </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="46"/>
-      <c r="B40" s="46"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
       <c r="C40" s="6"/>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
       <c r="G40" s="24"/>
-      <c r="H40" s="79"/>
+      <c r="H40" s="41"/>
       <c r="I40" s="38"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -1326,7 +1353,7 @@
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -1337,7 +1364,7 @@
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -1348,7 +1375,7 @@
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -1359,7 +1386,7 @@
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -1370,7 +1397,7 @@
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -1381,7 +1408,7 @@
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -1392,7 +1419,7 @@
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -1403,7 +1430,7 @@
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -1414,7 +1441,7 @@
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -1425,7 +1452,7 @@
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -1436,7 +1463,7 @@
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -1447,7 +1474,7 @@
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -1458,7 +1485,7 @@
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -1471,27 +1498,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="I34:I40"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="H34:H40"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I8:I14"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B16:B19"/>
     <mergeCell ref="G31:G32"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="I21:I26"/>
@@ -1504,6 +1510,27 @@
     <mergeCell ref="H27:H33"/>
     <mergeCell ref="I27:I33"/>
     <mergeCell ref="G27:G29"/>
+    <mergeCell ref="I8:I14"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="I34:I40"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="H34:H40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/周计划-2018-03-19.xlsx
+++ b/Personal/xueyu/plan/周计划-2018-03-19.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E74E62F-0EBE-4597-988B-EED4B0548B46}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,12 +108,52 @@
     <t>有点难，二元函数的极限难度指数级增长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背单词40个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先看懂命令手册，再结合命令手册看代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看一点数据结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背完单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳住心态，好好学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,7 +364,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -343,9 +382,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -549,6 +585,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -824,63 +869,63 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="48.625" customWidth="1"/>
-    <col min="4" max="5" width="13.875" style="28" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="28" customWidth="1"/>
-    <col min="7" max="7" width="35.375" style="28" customWidth="1"/>
+    <col min="4" max="5" width="13.875" style="27" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="27" customWidth="1"/>
+    <col min="7" max="7" width="35.375" style="27" customWidth="1"/>
     <col min="8" max="8" width="30.125" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="76.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:9" ht="76.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickTop="1">
+      <c r="A2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -890,634 +935,646 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="46">
+    <row r="3" spans="1:9">
+      <c r="A3" s="45">
         <v>43178</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="54" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="51">
+      <c r="I3" s="50">
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="47"/>
-      <c r="B4" s="50"/>
+    <row r="4" spans="1:9">
+      <c r="A4" s="46"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="52"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
-      <c r="B5" s="44" t="s">
+      <c r="G4" s="16"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="51"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="44"/>
+      <c r="B5" s="43" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="16" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="52"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="51"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="16" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="52"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="45"/>
-      <c r="B7" s="35" t="s">
+      <c r="G6" s="30"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="51"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="44"/>
+      <c r="B7" s="34" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="16" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="53"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="56"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="55"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="57"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="55"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="57"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="55"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="55"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="57"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="55"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="55"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="57"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="55"/>
-    </row>
-    <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="53"/>
+      <c r="I7" s="52"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A8" s="55">
+        <v>43179</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="54"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="54"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="56"/>
+      <c r="B10" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="54"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="56"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="54"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="56"/>
+      <c r="B12" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="54"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="56"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="54"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A14" s="68"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="66"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="69"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
       <c r="H15" s="5"/>
       <c r="I15" s="67"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="70"/>
+    <row r="16" spans="1:9">
+      <c r="A16" s="69"/>
       <c r="B16" s="62"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="68"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="70"/>
-      <c r="B17" s="63"/>
+      <c r="I16" s="67"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="69"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="68"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="70"/>
+      <c r="I17" s="67"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="69"/>
       <c r="B18" s="63"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="68"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="70"/>
-      <c r="B19" s="64"/>
+      <c r="I18" s="67"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="69"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="68"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="70"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="1"/>
+      <c r="I19" s="67"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="68"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
-      <c r="B21" s="37"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="37"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="38"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I21" s="37"/>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="36"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="38"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
+      <c r="I22" s="37"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="38"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
+      <c r="I23" s="37"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="38"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
+      <c r="I24" s="37"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="38"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="6"/>
+      <c r="I25" s="37"/>
+    </row>
+    <row r="26" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A26" s="45"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="38"/>
-    </row>
-    <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="46"/>
-      <c r="B27" s="66"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="73"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="70"/>
+      <c r="B27" s="65"/>
       <c r="C27" s="7"/>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="F27" s="24"/>
       <c r="G27" s="77"/>
-      <c r="H27" s="54"/>
+      <c r="H27" s="53"/>
       <c r="I27" s="74"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="71"/>
-      <c r="B28" s="66"/>
+    <row r="28" spans="1:9">
+      <c r="A28" s="70"/>
+      <c r="B28" s="65"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="24"/>
       <c r="G28" s="78"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="75"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="71"/>
-      <c r="B29" s="66"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="74"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="70"/>
+      <c r="B29" s="72"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="75"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="71"/>
-      <c r="B30" s="73"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="74"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="70"/>
+      <c r="B30" s="72"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="75"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="71"/>
-      <c r="B31" s="73"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="74"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="70"/>
+      <c r="B31" s="72"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="75"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="74"/>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="71"/>
-      <c r="B32" s="73"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="54"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="53"/>
       <c r="I32" s="75"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="72"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="76"/>
-    </row>
-    <row r="34" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="36"/>
-      <c r="B34" s="37"/>
+    <row r="33" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A33" s="35"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="37"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="35"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
       <c r="H34" s="39"/>
-      <c r="I34" s="38"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I34" s="37"/>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="36"/>
-      <c r="B35" s="37"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="38"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="37"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="38"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="38"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="37"/>
-      <c r="B38" s="37"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="37"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="37"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="38"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="37"/>
-      <c r="B39" s="37"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="37"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
       <c r="H39" s="40"/>
-      <c r="I39" s="38"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="37"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="38"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I39" s="37"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-    </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="I21:I26"/>
-    <mergeCell ref="I15:I20"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="H27:H33"/>
-    <mergeCell ref="I27:I33"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="I8:I14"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B21:B22"/>
+  <mergeCells count="34">
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="I20:I25"/>
+    <mergeCell ref="I14:I19"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="H26:H32"/>
+    <mergeCell ref="I26:I32"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="I8:I13"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A20:A25"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="H8:H13"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A3:A7"/>
@@ -1525,12 +1582,12 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="I3:I7"/>
     <mergeCell ref="H3:H7"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="I34:I40"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="H34:H40"/>
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="I33:I39"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="H33:H39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/周计划-2018-03-19.xlsx
+++ b/Personal/xueyu/plan/周计划-2018-03-19.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541D4B5A-7031-4E83-B1AE-F666E2DD2D26}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,12 +149,48 @@
     <t>稳住心态，好好学习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没学太多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背完单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:20 - 19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:00 - 23:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,7 +401,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -454,13 +491,130 @@
     <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -470,129 +624,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -869,21 +900,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -895,24 +926,24 @@
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="76.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:9" ht="76.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickTop="1">
-      <c r="A2" s="47" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
@@ -935,11 +966,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="43">
         <v>43178</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="68" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -951,16 +982,16 @@
         <v>18</v>
       </c>
       <c r="G3" s="16"/>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="50">
+      <c r="I3" s="74">
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="46"/>
-      <c r="B4" s="49"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="70"/>
+      <c r="B4" s="73"/>
       <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
@@ -970,12 +1001,12 @@
         <v>18</v>
       </c>
       <c r="G4" s="16"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="51"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="44"/>
-      <c r="B5" s="43" t="s">
+      <c r="H4" s="48"/>
+      <c r="I4" s="75"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="69"/>
+      <c r="B5" s="68" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -987,12 +1018,12 @@
         <v>18</v>
       </c>
       <c r="G5" s="30"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="51"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="75"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="69"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1002,11 +1033,11 @@
         <v>19</v>
       </c>
       <c r="G6" s="30"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="51"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="44"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="75"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="69"/>
       <c r="B7" s="34" t="s">
         <v>15</v>
       </c>
@@ -1021,14 +1052,14 @@
       <c r="G7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="52"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A8" s="55">
+      <c r="H7" s="48"/>
+      <c r="I7" s="76"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="56">
         <v>43179</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="58" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1036,29 +1067,37 @@
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="29"/>
-      <c r="F8" s="19"/>
+      <c r="F8" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="G8" s="31"/>
-      <c r="H8" s="79" t="s">
+      <c r="H8" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="54"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="56"/>
-      <c r="B9" s="57"/>
+      <c r="I8" s="55">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="57"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
+      <c r="E9" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="G9" s="31"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="54"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="56"/>
-      <c r="B10" s="58" t="s">
+      <c r="H9" s="64"/>
+      <c r="I9" s="55"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="57"/>
+      <c r="B10" s="60" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1066,27 +1105,31 @@
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
-      <c r="F10" s="20"/>
+      <c r="F10" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="G10" s="31"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="54"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="56"/>
-      <c r="B11" s="59"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="55"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="57"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
+      <c r="F11" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="G11" s="31"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="54"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="56"/>
-      <c r="B12" s="58" t="s">
+      <c r="H11" s="64"/>
+      <c r="I11" s="55"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="57"/>
+      <c r="B12" s="60" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1094,26 +1137,34 @@
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="54"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="56"/>
-      <c r="B13" s="60"/>
+      <c r="F12" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="64"/>
+      <c r="I12" s="55"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="57"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="29"/>
-      <c r="F13" s="19"/>
+      <c r="F13" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="G13" s="31"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="54"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A14" s="68"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="55"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="41">
+        <v>43180</v>
+      </c>
       <c r="B14" s="28"/>
       <c r="C14" s="1"/>
       <c r="D14" s="21"/>
@@ -1121,284 +1172,296 @@
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="66"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="69"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="22"/>
+      <c r="I14" s="39"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="42"/>
+      <c r="B15" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>37</v>
+      </c>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="67"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="69"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="14"/>
+      <c r="I15" s="40"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="42"/>
+      <c r="B16" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="22"/>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="67"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="69"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="67"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="69"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="67"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="69"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="67"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="9"/>
+      <c r="I16" s="40"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="59"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="38"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="59"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="38"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="38"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="37"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="9"/>
+      <c r="I20" s="38"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="37"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
+      <c r="I21" s="38"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="6"/>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="37"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="37"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="37"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="37"/>
-    </row>
-    <row r="26" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A26" s="45"/>
-      <c r="B26" s="65"/>
+      <c r="I22" s="38"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="43"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="49"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="44"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="50"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="44"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="50"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="44"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
       <c r="F26" s="24"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="73"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="70"/>
-      <c r="B27" s="65"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="50"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="44"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="24"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="74"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="70"/>
-      <c r="B28" s="65"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="50"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="44"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
       <c r="F28" s="24"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="74"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="70"/>
-      <c r="B29" s="72"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="50"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="45"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="74"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="70"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="74"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="70"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="74"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="71"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="75"/>
-    </row>
-    <row r="33" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A33" s="35"/>
-      <c r="B33" s="36"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="51"/>
+    </row>
+    <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="59"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="38"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="59"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="38"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="38"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="9"/>
       <c r="D33" s="23"/>
       <c r="E33" s="23"/>
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="37"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="35"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="9"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="38"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="6"/>
       <c r="D34" s="23"/>
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="37"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="36"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="33"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="38"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="23"/>
       <c r="F35" s="23"/>
       <c r="G35" s="23"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="37"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="36"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="9"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="38"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="23"/>
       <c r="E36" s="23"/>
       <c r="F36" s="23"/>
       <c r="G36" s="23"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="37"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="36"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="37"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="36"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="37"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="36"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="37"/>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="H36" s="79"/>
+      <c r="I36" s="38"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -1409,7 +1472,7 @@
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -1420,7 +1483,7 @@
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -1431,7 +1494,7 @@
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -1442,7 +1505,7 @@
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -1453,7 +1516,7 @@
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -1464,7 +1527,7 @@
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -1475,7 +1538,7 @@
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -1486,7 +1549,7 @@
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -1497,7 +1560,7 @@
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -1508,7 +1571,7 @@
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -1519,62 +1582,14 @@
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
     </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-    </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="I20:I25"/>
-    <mergeCell ref="I14:I19"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="H26:H32"/>
-    <mergeCell ref="I26:I32"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="I8:I13"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="H8:H13"/>
+  <mergeCells count="33">
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="I30:I36"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="H30:H36"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A3:A7"/>
@@ -1582,12 +1597,26 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="I3:I7"/>
     <mergeCell ref="H3:H7"/>
-    <mergeCell ref="A33:A39"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="I33:I39"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="H33:H39"/>
+    <mergeCell ref="I8:I13"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="H8:H13"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="I17:I22"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="H23:H29"/>
+    <mergeCell ref="I23:I29"/>
+    <mergeCell ref="G23:G25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/周计划-2018-03-19.xlsx
+++ b/Personal/xueyu/plan/周计划-2018-03-19.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541D4B5A-7031-4E83-B1AE-F666E2DD2D26}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,12 +184,56 @@
     <t>21:00 - 23:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">no </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看看代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看看书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背20个单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背完单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看看代码看看书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学点数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,7 +444,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -494,15 +537,102 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -515,23 +645,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -551,80 +672,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -900,21 +955,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -926,24 +981,24 @@
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="76.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:9" ht="76.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="71" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickTop="1">
+      <c r="A2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="72"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
@@ -966,11 +1021,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="43">
+    <row r="3" spans="1:9">
+      <c r="A3" s="47">
         <v>43178</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -982,16 +1037,16 @@
         <v>18</v>
       </c>
       <c r="G3" s="16"/>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="74">
+      <c r="I3" s="52">
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="70"/>
-      <c r="B4" s="73"/>
+    <row r="4" spans="1:9">
+      <c r="A4" s="48"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
@@ -1001,12 +1056,12 @@
         <v>18</v>
       </c>
       <c r="G4" s="16"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="75"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="69"/>
-      <c r="B5" s="68" t="s">
+      <c r="H4" s="55"/>
+      <c r="I4" s="53"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="46"/>
+      <c r="B5" s="45" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1018,12 +1073,12 @@
         <v>18</v>
       </c>
       <c r="G5" s="30"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="75"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="69"/>
-      <c r="B6" s="69"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="53"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1033,11 +1088,11 @@
         <v>19</v>
       </c>
       <c r="G6" s="30"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="75"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="69"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="53"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="46"/>
       <c r="B7" s="34" t="s">
         <v>15</v>
       </c>
@@ -1052,14 +1107,14 @@
       <c r="G7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="76"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="56">
+      <c r="H7" s="55"/>
+      <c r="I7" s="54"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A8" s="57">
         <v>43179</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="59" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1074,13 +1129,13 @@
       <c r="H8" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="55">
+      <c r="I8" s="56">
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="57"/>
-      <c r="B9" s="58"/>
+    <row r="9" spans="1:9">
+      <c r="A9" s="58"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
@@ -1093,10 +1148,10 @@
       </c>
       <c r="G9" s="31"/>
       <c r="H9" s="64"/>
-      <c r="I9" s="55"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="57"/>
+      <c r="I9" s="56"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="58"/>
       <c r="B10" s="60" t="s">
         <v>24</v>
       </c>
@@ -1110,10 +1165,10 @@
       </c>
       <c r="G10" s="31"/>
       <c r="H10" s="64"/>
-      <c r="I10" s="55"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
+      <c r="I10" s="56"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="58"/>
       <c r="B11" s="61"/>
       <c r="C11" s="3" t="s">
         <v>26</v>
@@ -1125,10 +1180,10 @@
       </c>
       <c r="G11" s="31"/>
       <c r="H11" s="64"/>
-      <c r="I11" s="55"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="57"/>
+      <c r="I11" s="56"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="58"/>
       <c r="B12" s="60" t="s">
         <v>27</v>
       </c>
@@ -1144,10 +1199,10 @@
         <v>34</v>
       </c>
       <c r="H12" s="64"/>
-      <c r="I12" s="55"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
+      <c r="I12" s="56"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="58"/>
       <c r="B13" s="62"/>
       <c r="C13" s="3" t="s">
         <v>29</v>
@@ -1159,10 +1214,10 @@
       </c>
       <c r="G13" s="31"/>
       <c r="H13" s="65"/>
-      <c r="I13" s="55"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="41">
+      <c r="I13" s="56"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A14" s="70">
         <v>43180</v>
       </c>
       <c r="B14" s="28"/>
@@ -1172,10 +1227,12 @@
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="39"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="42"/>
+      <c r="I14" s="68">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="71"/>
       <c r="B15" s="35" t="s">
         <v>35</v>
       </c>
@@ -1186,13 +1243,15 @@
         <v>37</v>
       </c>
       <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
+      <c r="F15" s="22" t="s">
+        <v>40</v>
+      </c>
       <c r="G15" s="22"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="40"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="42"/>
+      <c r="I15" s="69"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="71"/>
       <c r="B16" s="28" t="s">
         <v>32</v>
       </c>
@@ -1203,232 +1262,254 @@
         <v>39</v>
       </c>
       <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
+      <c r="F16" s="22" t="s">
+        <v>41</v>
+      </c>
       <c r="G16" s="22"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="40"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="59"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="9"/>
+      <c r="I16" s="69"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="37">
+        <v>43181</v>
+      </c>
+      <c r="B17" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="38"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="59"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="9"/>
+      <c r="I17" s="39"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="37"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="38"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="6"/>
+      <c r="I18" s="39"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="37"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="38"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="6"/>
+      <c r="I19" s="39"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="38"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="6"/>
+      <c r="I20" s="39"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="38"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="6"/>
+      <c r="I21" s="39"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="38"/>
+      <c r="B22" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="38"/>
-    </row>
-    <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="43"/>
-      <c r="B23" s="37"/>
+      <c r="I22" s="39"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A23" s="47"/>
+      <c r="B23" s="67"/>
       <c r="C23" s="7"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="49"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="44"/>
-      <c r="B24" s="37"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="75"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="72"/>
+      <c r="B24" s="67"/>
       <c r="C24" s="7"/>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
       <c r="F24" s="24"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="50"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="44"/>
-      <c r="B25" s="37"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="76"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="72"/>
+      <c r="B25" s="67"/>
       <c r="C25" s="7"/>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
       <c r="F25" s="24"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="50"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="44"/>
-      <c r="B26" s="47"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="76"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="72"/>
+      <c r="B26" s="74"/>
       <c r="C26" s="7"/>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="50"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="44"/>
-      <c r="B27" s="47"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="76"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="72"/>
+      <c r="B27" s="74"/>
       <c r="C27" s="7"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="50"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="44"/>
-      <c r="B28" s="47"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="76"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="72"/>
+      <c r="B28" s="74"/>
       <c r="C28" s="7"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="50"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="45"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="76"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="73"/>
       <c r="B29" s="32"/>
       <c r="C29" s="7"/>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="51"/>
-    </row>
-    <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="59"/>
-      <c r="B30" s="46"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="77"/>
+    </row>
+    <row r="30" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A30" s="37"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="9"/>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="38"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="59"/>
-      <c r="B31" s="46"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="39"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="37"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="9"/>
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="38"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="39"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="9"/>
       <c r="D32" s="33"/>
       <c r="E32" s="23"/>
       <c r="F32" s="23"/>
       <c r="G32" s="23"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="38"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="39"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
       <c r="C33" s="9"/>
       <c r="D33" s="23"/>
       <c r="E33" s="23"/>
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="38"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="46"/>
-      <c r="B34" s="46"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="39"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="6"/>
       <c r="D34" s="23"/>
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="38"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="46"/>
-      <c r="B35" s="46"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="39"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="6"/>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
       <c r="F35" s="23"/>
       <c r="G35" s="23"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="38"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="46"/>
-      <c r="B36" s="46"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="39"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
       <c r="C36" s="6"/>
       <c r="D36" s="23"/>
       <c r="E36" s="23"/>
       <c r="F36" s="23"/>
       <c r="G36" s="23"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="38"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H36" s="42"/>
+      <c r="I36" s="39"/>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -1439,7 +1520,7 @@
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -1450,7 +1531,7 @@
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -1461,7 +1542,7 @@
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -1472,7 +1553,7 @@
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -1483,7 +1564,7 @@
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -1494,7 +1575,7 @@
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -1505,7 +1586,7 @@
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -1516,7 +1597,7 @@
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -1527,7 +1608,7 @@
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -1538,7 +1619,7 @@
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -1549,7 +1630,7 @@
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -1560,7 +1641,7 @@
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -1571,7 +1652,7 @@
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -1583,13 +1664,26 @@
       <c r="I50" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="I30:I36"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="H30:H36"/>
+  <mergeCells count="32">
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="I17:I22"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="H23:H29"/>
+    <mergeCell ref="I23:I29"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="I8:I13"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="H8:H13"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A3:A7"/>
@@ -1597,26 +1691,12 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="I3:I7"/>
     <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I8:I13"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="H8:H13"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="I17:I22"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="H23:H29"/>
-    <mergeCell ref="I23:I29"/>
-    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="I30:I36"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="H30:H36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/周计划-2018-03-19.xlsx
+++ b/Personal/xueyu/plan/周计划-2018-03-19.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +50,254 @@
   </si>
   <si>
     <t>今日总体目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看rps代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背单词40个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续看rps代码？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要是不能调，就顺便学学数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓紧学习数学，早点把课本过一遍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看代码，学数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有点难，二元函数的极限难度指数级增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背单词40个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先看懂命令手册，再结合命令手册看代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看一点数据结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背完单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳住心态，好好学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没学太多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背完单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:20 - 19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:00 - 23:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">no </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看看代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看看书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背20个单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背完单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学点数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看看代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看看数学书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看看数据结构的书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:10 - 17:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:40 - 18:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:10 - 15:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:10 - 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:30 - 22:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">no </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">no </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望今天可以完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看看数据结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背背单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看看sdk的资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看数学书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学完成第九章</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -58,174 +306,6 @@
 2. 抓紧学习数学
 3. 把移动取消了
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上午</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看rps代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下午</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背单词40个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续看rps代码？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要是不能调，就顺便学学数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抓紧学习数学，早点把课本过一遍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看代码，学数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有点难，二元函数的极限难度指数级增长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上午</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背单词40个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下午</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先看懂命令手册，再结合命令手册看代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看一点数据结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背完单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稳住心态，好好学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没学太多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下午</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背完单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18:20 - 19:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21:00 - 23:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">no </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上午</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看看代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看看书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背20个单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下午</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背完单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看看代码看看书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学点数学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,7 +524,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -525,9 +605,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -540,13 +617,139 @@
     <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -558,128 +761,11 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -955,7 +1041,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -966,7 +1052,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -982,23 +1068,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="76.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="A1" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickTop="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="76"/>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1022,202 +1108,202 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="47">
+      <c r="A3" s="44">
         <v>43178</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>10</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="16"/>
-      <c r="H3" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="52">
+      <c r="H3" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="78">
         <v>0.4</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="48"/>
-      <c r="B4" s="51"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="77"/>
       <c r="C4" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="16"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="53"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="79"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="46"/>
-      <c r="B5" s="45" t="s">
-        <v>11</v>
+      <c r="A5" s="73"/>
+      <c r="B5" s="72" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" s="30"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="53"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="79"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="17"/>
       <c r="F6" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="30"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="53"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="79"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="46"/>
-      <c r="B7" s="34" t="s">
+      <c r="A7" s="73"/>
+      <c r="B7" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="11"/>
       <c r="F7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="H7" s="48"/>
+      <c r="I7" s="80"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A8" s="56">
+        <v>43179</v>
+      </c>
+      <c r="B8" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="54"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A8" s="57">
-        <v>43179</v>
-      </c>
-      <c r="B8" s="59" t="s">
+      <c r="C8" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="29"/>
       <c r="F8" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="31"/>
-      <c r="H8" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="56">
+      <c r="H8" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="55">
         <v>0.3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="58"/>
-      <c r="B9" s="59"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="31"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="56"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="55"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="58"/>
-      <c r="B10" s="60" t="s">
+      <c r="A10" s="57"/>
+      <c r="B10" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="31"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="56"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="55"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="58"/>
-      <c r="B11" s="61"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="31"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="56"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="55"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="58"/>
-      <c r="B12" s="60" t="s">
+      <c r="A12" s="57"/>
+      <c r="B12" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="64"/>
-      <c r="I12" s="56"/>
+        <v>33</v>
+      </c>
+      <c r="H12" s="65"/>
+      <c r="I12" s="55"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="58"/>
-      <c r="B13" s="62"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="29"/>
       <c r="F13" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" s="31"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="56"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="55"/>
     </row>
     <row r="14" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A14" s="70">
+      <c r="A14" s="42">
         <v>43180</v>
       </c>
       <c r="B14" s="28"/>
@@ -1227,286 +1313,342 @@
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="68">
+      <c r="I14" s="40">
         <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="71"/>
-      <c r="B15" s="35" t="s">
+      <c r="A15" s="43"/>
+      <c r="B15" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="22" t="s">
         <v>36</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>37</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="22"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="69"/>
+      <c r="I15" s="41"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="71"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="22" t="s">
         <v>38</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>39</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G16" s="22"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="69"/>
+      <c r="I16" s="41"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="37">
+      <c r="A17" s="59">
         <v>43181</v>
       </c>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
+      <c r="F17" s="23" t="s">
+        <v>58</v>
+      </c>
       <c r="G17" s="23"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="39"/>
+      <c r="H17" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="39">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="37"/>
-      <c r="B18" s="83"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="53"/>
       <c r="C18" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
+      <c r="F18" s="23" t="s">
+        <v>57</v>
+      </c>
       <c r="G18" s="23"/>
-      <c r="H18" s="6"/>
+      <c r="H18" s="68"/>
       <c r="I18" s="39"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="37"/>
-      <c r="B19" s="82"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
+      <c r="F19" s="23" t="s">
+        <v>59</v>
+      </c>
       <c r="G19" s="23"/>
-      <c r="H19" s="6"/>
+      <c r="H19" s="68"/>
       <c r="I19" s="39"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38" t="s">
+      <c r="A20" s="59"/>
+      <c r="B20" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="23"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="39"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="60"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="23"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="39"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="60"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="23"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="39"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="60"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="23"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="39"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="60"/>
+      <c r="B24" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="39"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="39"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="38"/>
-      <c r="B22" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="39"/>
-    </row>
-    <row r="23" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A23" s="47"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="75"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="72"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="76"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="72"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
+      <c r="D24" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="23"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="39"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A25" s="44">
+        <v>43182</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="24"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="76"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" s="49"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="72"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
       <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="76"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="50"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="72"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
       <c r="F27" s="24"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="76"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="50"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="72"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="7"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="76"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="50"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="73"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="7"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="77"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="51"/>
     </row>
     <row r="30" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A30" s="37"/>
-      <c r="B30" s="38"/>
+      <c r="A30" s="59"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="9"/>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
-      <c r="H30" s="40"/>
+      <c r="H30" s="81"/>
       <c r="I30" s="39"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="37"/>
-      <c r="B31" s="38"/>
+      <c r="A31" s="59"/>
+      <c r="B31" s="60"/>
       <c r="C31" s="9"/>
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
-      <c r="H31" s="41"/>
+      <c r="H31" s="82"/>
       <c r="I31" s="39"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="60"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="33"/>
+      <c r="D32" s="32"/>
       <c r="E32" s="23"/>
       <c r="F32" s="23"/>
       <c r="G32" s="23"/>
-      <c r="H32" s="41"/>
+      <c r="H32" s="82"/>
       <c r="I32" s="39"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="38"/>
-      <c r="B33" s="38"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="60"/>
       <c r="C33" s="9"/>
       <c r="D33" s="23"/>
       <c r="E33" s="23"/>
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
-      <c r="H33" s="41"/>
+      <c r="H33" s="82"/>
       <c r="I33" s="39"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="38"/>
-      <c r="B34" s="38"/>
+      <c r="A34" s="60"/>
+      <c r="B34" s="60"/>
       <c r="C34" s="6"/>
       <c r="D34" s="23"/>
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
-      <c r="H34" s="41"/>
+      <c r="H34" s="82"/>
       <c r="I34" s="39"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="38"/>
-      <c r="B35" s="38"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="60"/>
       <c r="C35" s="6"/>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
       <c r="F35" s="23"/>
       <c r="G35" s="23"/>
-      <c r="H35" s="41"/>
+      <c r="H35" s="82"/>
       <c r="I35" s="39"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="38"/>
-      <c r="B36" s="38"/>
+      <c r="A36" s="60"/>
+      <c r="B36" s="60"/>
       <c r="C36" s="6"/>
       <c r="D36" s="23"/>
       <c r="E36" s="23"/>
       <c r="F36" s="23"/>
       <c r="G36" s="23"/>
-      <c r="H36" s="42"/>
+      <c r="H36" s="83"/>
       <c r="I36" s="39"/>
     </row>
     <row r="37" spans="1:9">
@@ -1664,26 +1806,13 @@
       <c r="I50" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="I17:I22"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="H23:H29"/>
-    <mergeCell ref="I23:I29"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="I8:I13"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="H8:H13"/>
+  <mergeCells count="31">
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="I30:I36"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="H30:H36"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A3:A7"/>
@@ -1691,12 +1820,24 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="I3:I7"/>
     <mergeCell ref="H3:H7"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="I30:I36"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="H30:H36"/>
+    <mergeCell ref="I8:I13"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="H8:H13"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="H17:H24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="I17:I24"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="H25:H29"/>
+    <mergeCell ref="I25:I29"/>
+    <mergeCell ref="B17:B19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/周计划-2018-03-19.xlsx
+++ b/Personal/xueyu/plan/周计划-2018-03-19.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="80">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -306,6 +306,42 @@
 2. 抓紧学习数学
 3. 把移动取消了
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只看了一点点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看数学书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:30 - 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:30 - 15:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00 - 18:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:10 - 17:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天下午定好闹铃好好干</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,7 +560,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -618,15 +654,120 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -641,21 +782,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -665,107 +797,23 @@
     <xf numFmtId="9" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1041,7 +1089,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1049,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1068,23 +1116,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="76.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickTop="1">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="76"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1108,10 +1156,10 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="44">
+      <c r="A3" s="49">
         <v>43178</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="47" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -1123,16 +1171,16 @@
         <v>17</v>
       </c>
       <c r="G3" s="16"/>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="78">
+      <c r="I3" s="54">
         <v>0.4</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="74"/>
-      <c r="B4" s="77"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1142,12 +1190,12 @@
         <v>17</v>
       </c>
       <c r="G4" s="16"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="79"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="55"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="73"/>
-      <c r="B5" s="72" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="47" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1159,12 +1207,12 @@
         <v>17</v>
       </c>
       <c r="G5" s="30"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="79"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="55"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="73"/>
-      <c r="B6" s="73"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1174,11 +1222,11 @@
         <v>18</v>
       </c>
       <c r="G6" s="30"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="55"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="73"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="33" t="s">
         <v>14</v>
       </c>
@@ -1193,14 +1241,14 @@
       <c r="G7" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="80"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="56"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A8" s="56">
+      <c r="A8" s="59">
         <v>43179</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="61" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1212,16 +1260,16 @@
         <v>30</v>
       </c>
       <c r="G8" s="31"/>
-      <c r="H8" s="64" t="s">
+      <c r="H8" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="55">
+      <c r="I8" s="58">
         <v>0.3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="57"/>
-      <c r="B9" s="58"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
@@ -1233,12 +1281,12 @@
         <v>30</v>
       </c>
       <c r="G9" s="31"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="55"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="58"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="57"/>
-      <c r="B10" s="61" t="s">
+      <c r="A10" s="60"/>
+      <c r="B10" s="62" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1250,12 +1298,12 @@
         <v>30</v>
       </c>
       <c r="G10" s="31"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="55"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="58"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="57"/>
-      <c r="B11" s="62"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="3" t="s">
         <v>25</v>
       </c>
@@ -1265,12 +1313,12 @@
         <v>32</v>
       </c>
       <c r="G11" s="31"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="55"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="58"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="57"/>
-      <c r="B12" s="61" t="s">
+      <c r="A12" s="60"/>
+      <c r="B12" s="62" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1284,12 +1332,12 @@
       <c r="G12" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="65"/>
-      <c r="I12" s="55"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="58"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="57"/>
-      <c r="B13" s="63"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="3" t="s">
         <v>28</v>
       </c>
@@ -1299,11 +1347,11 @@
         <v>30</v>
       </c>
       <c r="G13" s="31"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="55"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="58"/>
     </row>
     <row r="14" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A14" s="42">
+      <c r="A14" s="77">
         <v>43180</v>
       </c>
       <c r="B14" s="28"/>
@@ -1313,12 +1361,12 @@
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="40">
+      <c r="I14" s="75">
         <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="43"/>
+      <c r="A15" s="78"/>
       <c r="B15" s="34" t="s">
         <v>34</v>
       </c>
@@ -1334,10 +1382,10 @@
       </c>
       <c r="G15" s="22"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="41"/>
+      <c r="I15" s="76"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="43"/>
+      <c r="A16" s="78"/>
       <c r="B16" s="28" t="s">
         <v>31</v>
       </c>
@@ -1353,13 +1401,13 @@
       </c>
       <c r="G16" s="22"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="41"/>
+      <c r="I16" s="76"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="59">
+      <c r="A17" s="39">
         <v>43181</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="68" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -1371,16 +1419,16 @@
         <v>58</v>
       </c>
       <c r="G17" s="23"/>
-      <c r="H17" s="67" t="s">
+      <c r="H17" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="39">
+      <c r="I17" s="41">
         <v>0.7</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="59"/>
-      <c r="B18" s="53"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="69"/>
       <c r="C18" s="9" t="s">
         <v>43</v>
       </c>
@@ -1390,12 +1438,12 @@
         <v>57</v>
       </c>
       <c r="G18" s="23"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="39"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="41"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="59"/>
-      <c r="B19" s="54"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="70"/>
       <c r="C19" s="9" t="s">
         <v>44</v>
       </c>
@@ -1405,12 +1453,12 @@
         <v>59</v>
       </c>
       <c r="G19" s="23"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="39"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="41"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="59"/>
-      <c r="B20" s="52" t="s">
+      <c r="A20" s="39"/>
+      <c r="B20" s="68" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="9" t="s">
@@ -1426,12 +1474,12 @@
         <v>61</v>
       </c>
       <c r="G20" s="23"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="39"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="41"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="60"/>
-      <c r="B21" s="53"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="69"/>
       <c r="C21" s="6" t="s">
         <v>49</v>
       </c>
@@ -1443,12 +1491,12 @@
         <v>61</v>
       </c>
       <c r="G21" s="23"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="39"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="41"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="60"/>
-      <c r="B22" s="53"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="69"/>
       <c r="C22" s="6" t="s">
         <v>51</v>
       </c>
@@ -1460,12 +1508,12 @@
         <v>61</v>
       </c>
       <c r="G22" s="23"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="39"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="41"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="60"/>
-      <c r="B23" s="54"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="70"/>
       <c r="C23" s="6" t="s">
         <v>47</v>
       </c>
@@ -1477,11 +1525,11 @@
         <v>61</v>
       </c>
       <c r="G23" s="23"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="39"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="41"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="60"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="35" t="s">
         <v>46</v>
       </c>
@@ -1496,14 +1544,14 @@
         <v>61</v>
       </c>
       <c r="G24" s="23"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="39"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="41"/>
     </row>
     <row r="25" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A25" s="44">
+      <c r="A25" s="49">
         <v>43182</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="74" t="s">
         <v>62</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -1511,167 +1559,187 @@
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="48" t="s">
+      <c r="F25" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="I25" s="49"/>
+      <c r="I25" s="81"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="45"/>
-      <c r="B26" s="38"/>
+      <c r="A26" s="79"/>
+      <c r="B26" s="74"/>
       <c r="C26" s="7" t="s">
         <v>64</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="50"/>
+      <c r="F26" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="38"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="82"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="45"/>
-      <c r="B27" s="47" t="s">
+      <c r="A27" s="79"/>
+      <c r="B27" s="84" t="s">
         <v>65</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="25"/>
+        <v>74</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>76</v>
+      </c>
       <c r="E27" s="25"/>
       <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="50"/>
+      <c r="G27" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" s="57"/>
+      <c r="I27" s="82"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="45"/>
-      <c r="B28" s="47"/>
+      <c r="A28" s="79"/>
+      <c r="B28" s="86"/>
       <c r="C28" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
+        <v>66</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="25"/>
       <c r="F28" s="24"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="50"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="82"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="46"/>
-      <c r="B29" s="37" t="s">
-        <v>68</v>
-      </c>
+      <c r="A29" s="79"/>
+      <c r="B29" s="86"/>
       <c r="C29" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="24"/>
+      <c r="D29" s="24" t="s">
+        <v>78</v>
+      </c>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="51"/>
-    </row>
-    <row r="30" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A30" s="59"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="39"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="82"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="79"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="82"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="59"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="39"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="60"/>
-      <c r="B32" s="60"/>
+      <c r="A31" s="80"/>
+      <c r="B31" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="83"/>
+    </row>
+    <row r="32" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A32" s="39"/>
+      <c r="B32" s="40"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="32"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="23"/>
       <c r="F32" s="23"/>
       <c r="G32" s="23"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="39"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="41"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="60"/>
-      <c r="B33" s="60"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="9"/>
       <c r="D33" s="23"/>
       <c r="E33" s="23"/>
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="39"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="41"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="60"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="23"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="32"/>
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="39"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="41"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="60"/>
-      <c r="B35" s="60"/>
-      <c r="C35" s="6"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
       <c r="F35" s="23"/>
       <c r="G35" s="23"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="39"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="41"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="60"/>
-      <c r="B36" s="60"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
       <c r="C36" s="6"/>
       <c r="D36" s="23"/>
       <c r="E36" s="23"/>
       <c r="F36" s="23"/>
       <c r="G36" s="23"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="39"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="41"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="41"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="41"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="10"/>
@@ -1805,21 +1873,40 @@
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
     </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="I30:I36"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="H30:H36"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="H3:H7"/>
+  <mergeCells count="32">
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="I17:I24"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="H25:H31"/>
+    <mergeCell ref="I25:I31"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="G27:G30"/>
     <mergeCell ref="I8:I13"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="B8:B9"/>
@@ -1829,15 +1916,19 @@
     <mergeCell ref="H8:H13"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="H17:H24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="I17:I24"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="H25:H29"/>
-    <mergeCell ref="I25:I29"/>
-    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="I32:I38"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="H32:H38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
